--- a/individual_case_outputs/avey/13.xlsx
+++ b/individual_case_outputs/avey/13.xlsx
@@ -940,11 +940,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>acute bronchitis</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
@@ -1013,11 +1009,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>emphysema</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
@@ -1107,7 +1099,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>common cold</t>
+          <t>influenza</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
